--- a/raw/Variables para automatización memorias de calculo.xlsx
+++ b/raw/Variables para automatización memorias de calculo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\root\projects\memcalculation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\alanrproject\projects\IngenieriaCiudad\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F4292B-9473-4DF6-BDFC-5F2B63014147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1106FC-3B6A-4B95-8A6C-E2361BEF0D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{5D05AEF4-27F9-4C77-8016-BF0321375D48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5D05AEF4-27F9-4C77-8016-BF0321375D48}"/>
   </bookViews>
   <sheets>
     <sheet name="Vars" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -269,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,16 +358,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -384,10 +382,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -709,23 +703,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9595633C-4F8E-497C-AFA0-38047FECB769}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.625" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.625" style="2"/>
+    <col min="4" max="4" width="23.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +729,7 @@
       <c r="C1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -745,801 +739,801 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1">
-      <c r="A2" s="5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="str">
+      <c r="D2" s="5" t="str">
         <f>_xlfn.CONCAT(B2,"00",C2)</f>
         <v>float001</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="28.5">
-      <c r="A3" s="5">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="6" t="str">
+      <c r="D3" s="5" t="str">
         <f t="shared" ref="D3:D23" si="0">_xlfn.CONCAT(B3,"00",C3)</f>
         <v>string001</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1">
-      <c r="A4" s="5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="str">
+      <c r="D4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>string002</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" ht="28.5">
-      <c r="A5" s="5">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="str">
+      <c r="D5" s="5" t="str">
         <f>_xlfn.CONCAT(B5,"00",C5)</f>
         <v>string003</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>45323</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1">
-      <c r="A6" s="5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="6" t="str">
+      <c r="D6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>string004</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="5" customFormat="1">
-      <c r="A7" s="5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="str">
+      <c r="D7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>int001</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="28.5">
-      <c r="A8" s="5">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
         <v>2</v>
       </c>
-      <c r="D8" s="6" t="str">
+      <c r="D8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>int002</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1">
-      <c r="A9" s="5">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5">
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="D9" s="6" t="str">
+      <c r="D9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>int003</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="5" customFormat="1">
-      <c r="A10" s="5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="6" t="str">
+      <c r="D10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>string005</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1">
-      <c r="A11" s="5">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5">
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
         <v>4</v>
       </c>
-      <c r="D11" s="6" t="str">
+      <c r="D11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>int004</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="5" customFormat="1">
-      <c r="A12" s="5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="2">
         <v>6</v>
       </c>
-      <c r="D12" s="6" t="str">
+      <c r="D12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>string006</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" ht="28.5">
-      <c r="A13" s="5">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5">
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2">
         <v>5</v>
       </c>
-      <c r="D13" s="6" t="str">
+      <c r="D13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>int005</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="2">
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="5" customFormat="1">
-      <c r="A14" s="5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
         <v>6</v>
       </c>
-      <c r="D14" s="6" t="str">
+      <c r="D14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>int006</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" ht="28.5">
-      <c r="A15" s="5">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="5">
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
         <v>7</v>
       </c>
-      <c r="D15" s="6" t="str">
+      <c r="D15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>int007</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" ht="28.5">
-      <c r="A16" s="5">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="2">
         <v>7</v>
       </c>
-      <c r="D16" s="5" t="str">
+      <c r="D16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>string007</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="5" customFormat="1">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="2">
         <v>2</v>
       </c>
-      <c r="D17" s="5" t="str">
+      <c r="D17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>float002</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" ht="28.5">
-      <c r="A18" s="5">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="2">
         <v>3</v>
       </c>
-      <c r="D18" s="5" t="str">
+      <c r="D18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>float003</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="5" customFormat="1" ht="28.5">
-      <c r="A19" s="5">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="2">
         <v>4</v>
       </c>
-      <c r="D19" s="5" t="str">
+      <c r="D19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>float004</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" ht="42.75">
-      <c r="A20" s="5">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>float005</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>float006</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="C20" s="5">
-        <v>5</v>
-      </c>
-      <c r="D20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>float 005</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="5" customFormat="1">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>int008</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="2">
         <v>6</v>
       </c>
-      <c r="D21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>float006</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="5" customFormat="1">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="5">
-        <v>8</v>
-      </c>
-      <c r="D22" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>int008</v>
-      </c>
-      <c r="E22" s="7" t="s">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="F22" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="5" customFormat="1">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="2">
         <v>9</v>
       </c>
-      <c r="D23" s="6" t="str">
+      <c r="D23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>int009</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="5" customFormat="1">
-      <c r="A24" s="5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2">
         <v>10</v>
       </c>
-      <c r="D24" s="6" t="str">
+      <c r="D24" s="5" t="str">
         <f>_xlfn.CONCAT(B24,"0",C24)</f>
         <v>int010</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="5" customFormat="1">
-      <c r="A25" s="5">
+      <c r="F24" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="B25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="2">
         <v>11</v>
       </c>
-      <c r="D25" s="6" t="str">
+      <c r="D25" s="5" t="str">
         <f t="shared" ref="D25:D26" si="1">_xlfn.CONCAT(B25,"0",C25)</f>
         <v>int011</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1">
-      <c r="A26" s="5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="5">
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2">
         <v>12</v>
       </c>
-      <c r="D26" s="6" t="str">
+      <c r="D26" s="5" t="str">
         <f t="shared" si="1"/>
         <v>int012</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="2">
         <v>258</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" ht="42.75">
-      <c r="A27" s="5">
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="2">
         <v>7</v>
       </c>
-      <c r="D27" s="5" t="str">
+      <c r="D27" s="2" t="str">
         <f>_xlfn.CONCAT(B27,"00",C27)</f>
         <v>float007</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="5" customFormat="1" ht="28.5">
-      <c r="A28" s="5">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="5">
+      <c r="B28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="2">
         <v>13</v>
       </c>
-      <c r="D28" s="6" t="str">
+      <c r="D28" s="5" t="str">
         <f t="shared" ref="D28:D31" si="2">_xlfn.CONCAT(B28,"0",C28)</f>
         <v>int013</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1">
-      <c r="A29" s="5">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2">
         <v>14</v>
       </c>
-      <c r="D29" s="6" t="str">
+      <c r="D29" s="5" t="str">
         <f t="shared" si="2"/>
         <v>int014</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" ht="28.5">
-      <c r="A30" s="5">
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="5">
+      <c r="B30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2">
         <v>15</v>
       </c>
-      <c r="D30" s="6" t="str">
+      <c r="D30" s="5" t="str">
         <f t="shared" si="2"/>
         <v>int015</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1">
-      <c r="A31" s="5">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="5">
-        <v>16</v>
-      </c>
-      <c r="D31" s="6" t="str">
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2">
+        <v>16</v>
+      </c>
+      <c r="D31" s="5" t="str">
         <f t="shared" si="2"/>
         <v>int016</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="5" customFormat="1">
-      <c r="A32" s="5">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="2">
         <v>1</v>
       </c>
-      <c r="D32" s="5" t="str">
+      <c r="D32" s="2" t="str">
         <f>_xlfn.CONCAT(B32,"00",C32)</f>
         <v>tabla 001</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="5" customFormat="1">
-      <c r="A33" s="5">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="2">
         <v>8</v>
       </c>
-      <c r="D33" s="5" t="str">
+      <c r="D33" s="2" t="str">
         <f>_xlfn.CONCAT(B33,"00",C33)</f>
         <v>float008</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="5" customFormat="1">
-      <c r="A34" s="5">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="2">
         <v>9</v>
       </c>
-      <c r="D34" s="5" t="str">
+      <c r="D34" s="2" t="str">
         <f>_xlfn.CONCAT(B34,"00",C34)</f>
         <v>float009</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="5" customFormat="1" ht="28.5">
-      <c r="A35" s="5">
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="2">
         <v>10</v>
       </c>
-      <c r="D35" s="5" t="str">
+      <c r="D35" s="2" t="str">
         <f>_xlfn.CONCAT(B35,"0",C35)</f>
         <v>float010</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="5" customFormat="1" ht="42.75">
-      <c r="A36" s="5">
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="2">
         <v>11</v>
       </c>
-      <c r="D36" s="5" t="str">
+      <c r="D36" s="2" t="str">
         <f>_xlfn.CONCAT(B36,"0",C36)</f>
         <v>float011</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="5" customFormat="1" ht="28.5">
-      <c r="A37" s="5">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="2">
         <v>12</v>
       </c>
-      <c r="D37" s="5" t="str">
+      <c r="D37" s="2" t="str">
         <f>_xlfn.CONCAT(B37,"0",C37)</f>
         <v>float 012</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="5" customFormat="1" ht="28.5">
-      <c r="A38" s="5">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="5">
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2">
         <v>17</v>
       </c>
-      <c r="D38" s="5" t="str">
+      <c r="D38" s="2" t="str">
         <f>_xlfn.CONCAT(B38,"0",C38)</f>
         <v>int017</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="5" customFormat="1" ht="28.5">
-      <c r="A39" s="5">
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="5">
+      <c r="B39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="2">
         <v>18</v>
       </c>
-      <c r="D39" s="5" t="str">
+      <c r="D39" s="2" t="str">
         <f>_xlfn.CONCAT(B39,"0",C39)</f>
         <v>int018</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="2">
         <v>2</v>
       </c>
     </row>
